--- a/players_stats/Anthony Roberson.xlsx
+++ b/players_stats/Anthony Roberson.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1977-78</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,84 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>82</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="n">
-        <v>1598</v>
+        <v>88</v>
       </c>
       <c r="K2" t="n">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
-        <v>736</v>
+        <v>31</v>
       </c>
       <c r="M2" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>0.452</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.5</v>
+      </c>
       <c r="Q2" t="n">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>736</v>
+        <v>21</v>
       </c>
       <c r="S2" t="n">
-        <v>0.423</v>
+        <v>0.429</v>
       </c>
       <c r="T2" t="n">
-        <v>0.423</v>
+        <v>0.532</v>
       </c>
       <c r="U2" t="n">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>0.722</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>351</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>775</v>
+        <v>35</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 196</t>
+          <t xml:space="preserve"> 188</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -655,9 +663,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
-        <v>21</v>
-      </c>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -668,7 +674,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1978-79</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -676,7 +682,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -686,84 +692,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>63</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
       <c r="J3" t="n">
-        <v>1236</v>
+        <v>227</v>
       </c>
       <c r="K3" t="n">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="L3" t="n">
-        <v>498</v>
+        <v>104</v>
       </c>
       <c r="M3" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>0.423</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21</v>
+      </c>
+      <c r="O3" t="n">
+        <v>55</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.382</v>
+      </c>
       <c r="Q3" t="n">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>498</v>
+        <v>49</v>
       </c>
       <c r="S3" t="n">
-        <v>0.424</v>
+        <v>0.469</v>
       </c>
       <c r="T3" t="n">
-        <v>0.424</v>
+        <v>0.524</v>
       </c>
       <c r="U3" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="X3" t="n">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>498</v>
+        <v>111</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 196</t>
+          <t xml:space="preserve"> 188</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -771,9 +785,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -784,15 +796,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1979-80</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -802,90 +814,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="n">
-        <v>486</v>
+        <v>276</v>
       </c>
       <c r="K4" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="M4" t="n">
-        <v>0.381</v>
+        <v>0.367</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
+        <v>81</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>18</v>
+      </c>
+      <c r="R4" t="n">
+        <v>39</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>69</v>
-      </c>
-      <c r="R4" t="n">
-        <v>180</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.383</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="U4" t="n">
-        <v>39</v>
-      </c>
-      <c r="V4" t="n">
-        <v>60</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.65</v>
-      </c>
       <c r="X4" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 196</t>
+          <t xml:space="preserve"> 188</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -893,9 +907,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -906,7 +918,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1980-81</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -914,7 +926,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WSB</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -924,88 +936,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>253</v>
       </c>
       <c r="K5" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L5" t="n">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="M5" t="n">
-        <v>0.375</v>
+        <v>0.379</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.338</v>
+      </c>
       <c r="Q5" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="R5" t="n">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="S5" t="n">
-        <v>0.375</v>
+        <v>0.469</v>
       </c>
       <c r="T5" t="n">
-        <v>0.375</v>
+        <v>0.495</v>
       </c>
       <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
         <v>19</v>
       </c>
-      <c r="V5" t="n">
-        <v>29</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AB5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
         <v>18</v>
       </c>
-      <c r="Y5" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>68</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>52</v>
-      </c>
       <c r="AF5" t="n">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 196</t>
+          <t xml:space="preserve"> 188</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1013,9 +1029,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1026,15 +1040,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1044,90 +1058,90 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="K6" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="M6" t="n">
-        <v>0.374</v>
+        <v>0.294</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2</v>
+      </c>
       <c r="Q6" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="S6" t="n">
-        <v>0.374</v>
+        <v>0.429</v>
       </c>
       <c r="T6" t="n">
-        <v>0.374</v>
+        <v>0.353</v>
       </c>
       <c r="U6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>18</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Y6" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>1</v>
       </c>
-      <c r="AD6" t="n">
-        <v>17</v>
-      </c>
       <c r="AE6" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 196</t>
+          <t xml:space="preserve"> 188</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1135,9 +1149,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1160,92 +1172,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3867</v>
+        <v>591</v>
       </c>
       <c r="K7" t="n">
-        <v>679</v>
+        <v>102</v>
       </c>
       <c r="L7" t="n">
-        <v>1650</v>
+        <v>255</v>
       </c>
       <c r="M7" t="n">
-        <v>0.412</v>
+        <v>0.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="O7" t="n">
+        <v>146</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>50</v>
+      </c>
+      <c r="R7" t="n">
+        <v>109</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9</v>
+      </c>
+      <c r="V7" t="n">
+        <v>10</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>679</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1649</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="U7" t="n">
-        <v>300</v>
-      </c>
-      <c r="V7" t="n">
-        <v>429</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.6990000000000001</v>
-      </c>
-      <c r="X7" t="n">
-        <v>333</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>504</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>837</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF7" t="n">
         <v>265</v>
       </c>
-      <c r="AB7" t="n">
-        <v>89</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>256</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1658</v>
-      </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 196</t>
+          <t xml:space="preserve"> 188</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1253,9 +1265,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
+      <c r="AJ7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
